--- a/day.xlsx
+++ b/day.xlsx
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.003750230435821881</v>
+        <v>0.8545806722689073</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.004068842208108</v>
+        <v>0.8545806722689073</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.003907513018536</v>
+        <v>0.8545806722689073</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.003907513018536</v>
+        <v>0.8545806722689073</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.003907513018536</v>
+        <v>0.8545806722689073</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.003907513018536</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.003907513018536</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.003907513018536</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.003907513018536</v>
+        <v>0.8575806722689072</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.003907513018536</v>
+        <v>0.8574378151260502</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1.003907513018536</v>
+        <v>0.8574378151260502</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1.003907513018536</v>
+        <v>0.8574378151260502</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.003907513018536</v>
+        <v>0.8574378151260502</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1.003907513018536</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.8545806722689073</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.003907513018536</v>
+        <v>0.8545806722689073</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.000162813042439</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1.003907513018536</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.003907513018536</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.003907513018536</v>
+        <v>0.8535878151260503</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1.000162813042439</v>
+        <v>0.8535878151260503</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1.000162813042439</v>
+        <v>0.8535878151260503</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1.003907513018536</v>
+        <v>0.8545806722689073</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>2.000162813042439</v>
+        <v>0.8545806722689073</v>
       </c>
     </row>
   </sheetData>

--- a/day.xlsx
+++ b/day.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,21 @@
           <t>k</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>chekBox</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8545806722689073</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +466,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8545806722689073</v>
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +477,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8545806722689073</v>
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +488,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8545806722689073</v>
+        <v>0.4656250000000007</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +499,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8545806722689073</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +510,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +521,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +532,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.3</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +543,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8575806722689072</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +554,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8574378151260502</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +565,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8574378151260502</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +576,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8574378151260502</v>
+        <v>1.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +587,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8574378151260502</v>
+        <v>1.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +598,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1.3</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +609,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8545806722689073</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +620,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8545806722689073</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +631,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -588,13 +644,19 @@
       <c r="B19" t="n">
         <v>1.5</v>
       </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.5</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +664,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8535878151260503</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +675,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8535878151260503</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +686,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8535878151260503</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +697,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8545806722689073</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +708,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8545806722689073</v>
+        <v>0.9056249999999998</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
